--- a/xlsx/香港政策研究所_intext.xlsx
+++ b/xlsx/香港政策研究所_intext.xlsx
@@ -26,28 +26,28 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E5%9C%8B%E8%8F%AF_(%E9%A6%99%E6%B8%AF%E6%94%BF%E6%B2%BB%E4%BA%BA%E7%89%A9)</t>
   </si>
   <si>
-    <t>葉國華 (香港政治人物)</t>
-  </si>
-  <si>
-    <t>政策_政策_智庫_香港政策研究所</t>
+    <t>叶国华 (香港政治人物)</t>
+  </si>
+  <si>
+    <t>政策_政策_智库_香港政策研究所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BE%E9%88%BA%E6%88%90</t>
   </si>
   <si>
-    <t>曾鈺成</t>
+    <t>曾钰成</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%BB%BA%E6%B8%AF%E5%8D%94%E9%80%B2%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>民主建港協進聯盟</t>
+    <t>民主建港协进联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E7%B4%B9%E5%80%AB</t>
   </si>
   <si>
-    <t>黃紹倫</t>
+    <t>黄绍伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%95%E5%BF%97%E5%B9%B3</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E6%AD%A3%E5%84%80</t>
   </si>
   <si>
-    <t>李正儀</t>
+    <t>李正仪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E5%B8%8C%E7%AB%8B</t>
@@ -71,19 +71,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E4%BA%91%E6%A0%B9</t>
   </si>
   <si>
-    <t>陳云根</t>
+    <t>陈云根</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%9F%8E%E9%82%A6%E8%AB%96</t>
   </si>
   <si>
-    <t>香港城邦論</t>
+    <t>香港城邦论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E9%A1%98%E6%99%AF</t>
   </si>
   <si>
-    <t>香港願景</t>
+    <t>香港愿景</t>
   </si>
 </sst>
 </file>
